--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CD/20/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CD/20/seed4/result_data_KNN.xlsx
@@ -556,7 +556,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.552000000000001</v>
+        <v>-7.333</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -587,7 +587,7 @@
         <v>4.86</v>
       </c>
       <c r="C9" t="n">
-        <v>-10.67</v>
+        <v>-10.925</v>
       </c>
       <c r="D9" t="n">
         <v>-7.01</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.140000000000001</v>
+        <v>-7.697999999999999</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -655,7 +655,7 @@
         <v>4.02</v>
       </c>
       <c r="C13" t="n">
-        <v>-13.2</v>
+        <v>-13.305</v>
       </c>
       <c r="D13" t="n">
         <v>-8.359999999999999</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.978</v>
+        <v>-7.959999999999999</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -706,7 +706,7 @@
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-13.176</v>
+        <v>-13.095</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -740,7 +740,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.266</v>
+        <v>-11.305</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.712</v>
+        <v>-8.1</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -774,7 +774,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.246</v>
+        <v>-12.578</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -876,10 +876,10 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-13.968</v>
+        <v>-12.476</v>
       </c>
       <c r="D26" t="n">
-        <v>-8.372</v>
+        <v>-8.126999999999999</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -893,10 +893,10 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.602</v>
+        <v>-12.84</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.324000000000002</v>
+        <v>-8.433</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -927,10 +927,10 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-12.334</v>
+        <v>-12.34</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.516</v>
+        <v>-7.419</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -1029,7 +1029,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.246</v>
+        <v>-12.377</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1046,7 +1046,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-12.536</v>
+        <v>-12.428</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.860000000000001</v>
+        <v>-8.06</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1083,7 +1083,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.289999999999999</v>
+        <v>-7.722</v>
       </c>
       <c r="E38" t="n">
         <v>15.23</v>
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.282</v>
+        <v>-13.009</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1236,7 +1236,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.566</v>
+        <v>-7.502</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1304,7 +1304,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.808</v>
+        <v>-8.311000000000002</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.684</v>
+        <v>-7.601000000000001</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1369,10 +1369,10 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.988</v>
+        <v>-13.44</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.325999999999999</v>
+        <v>-8.409000000000001</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.376</v>
+        <v>-13.563</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1607,10 +1607,10 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-10.808</v>
+        <v>-11.269</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.142</v>
+        <v>-7.243</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1627,7 +1627,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.415999999999999</v>
+        <v>-7.323000000000002</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1726,10 +1726,10 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-14.03</v>
+        <v>-13.42</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.178</v>
+        <v>-7.276999999999999</v>
       </c>
       <c r="E76" t="n">
         <v>16.38</v>
@@ -1760,7 +1760,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-12.746</v>
+        <v>-12.52</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1814,7 +1814,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.875999999999999</v>
+        <v>-7.843999999999999</v>
       </c>
       <c r="E81" t="n">
         <v>17.6</v>
@@ -1828,7 +1828,7 @@
         <v>5.26</v>
       </c>
       <c r="C82" t="n">
-        <v>-12.122</v>
+        <v>-11.888</v>
       </c>
       <c r="D82" t="n">
         <v>-7.37</v>
@@ -1845,10 +1845,10 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.856</v>
+        <v>-13.184</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.727999999999998</v>
+        <v>-8.441999999999998</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -2015,7 +2015,7 @@
         <v>7.55</v>
       </c>
       <c r="C93" t="n">
-        <v>-12.294</v>
+        <v>-11.724</v>
       </c>
       <c r="D93" t="n">
         <v>-6.1</v>
@@ -2035,7 +2035,7 @@
         <v>-10.65</v>
       </c>
       <c r="D94" t="n">
-        <v>-7.356</v>
+        <v>-7.455999999999999</v>
       </c>
       <c r="E94" t="n">
         <v>17.92</v>
@@ -2083,7 +2083,7 @@
         <v>5.08</v>
       </c>
       <c r="C97" t="n">
-        <v>-12.482</v>
+        <v>-12.028</v>
       </c>
       <c r="D97" t="n">
         <v>-7.59</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.497999999999999</v>
+        <v>-8.293999999999999</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.347999999999999</v>
+        <v>-7.833</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
